--- a/CFLJ-踢人，排麦，送鲜花.xlsx
+++ b/CFLJ-踢人，排麦，送鲜花.xlsx
@@ -251,12 +251,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,21 +297,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +319,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,51 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -395,14 +434,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,45 +446,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -469,19 +462,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,31 +570,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,127 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,21 +661,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,17 +689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,11 +719,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,153 +744,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1239,13 +1232,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>507365</xdr:colOff>
+      <xdr:colOff>402590</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>115570</xdr:rowOff>
     </xdr:to>
@@ -1264,7 +1257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="819150" y="25736550"/>
+          <a:off x="714375" y="25736550"/>
           <a:ext cx="3803015" cy="6725920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1567,8 +1560,8 @@
   <sheetPr/>
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1597,7 +1590,6 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="16.5" spans="8:10">
       <c r="H6" s="5"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
